--- a/Database/Lentic/lentic_contaminants_2022.xlsx
+++ b/Database/Lentic/lentic_contaminants_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\ProyectoConaguaFinal\Database_final\Lentico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967118BC-ECDB-412E-AAA8-97869A3D86A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C56E82-BAD1-46A5-A98E-FADD9C13133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lentic" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6089" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6089" uniqueCount="1187">
   <si>
     <t>CLAVE</t>
   </si>
@@ -3588,6 +3588,9 @@
   </si>
   <si>
     <t>TF15b</t>
+  </si>
+  <si>
+    <t>ODm%</t>
   </si>
 </sst>
 </file>
@@ -3953,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4034,7 +4037,7 @@
         <v>1178</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1179</v>
